--- a/SFC-IO/SFC Model Variables.xlsx
+++ b/SFC-IO/SFC Model Variables.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdorsey\OneDrive - U.S. Small Business Administration\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA24B1-0227-4259-AD9D-C93A44C034B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CB1B77-A456-4418-9F3B-1A9B9FAF9741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51690" yWindow="-5115" windowWidth="28710" windowHeight="21000" xr2:uid="{F1E290DD-1959-4615-9D15-ECF1BC8EC38C}"/>
+    <workbookView xWindow="43050" yWindow="-3870" windowWidth="27495" windowHeight="19065" activeTab="1" xr2:uid="{F1E290DD-1959-4615-9D15-ECF1BC8EC38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="1" r:id="rId1"/>
-    <sheet name="OSMEI Model Equations" sheetId="6" r:id="rId2"/>
+    <sheet name="Modified Model Equations" sheetId="6" r:id="rId2"/>
     <sheet name="Paper Model Equations" sheetId="2" r:id="rId3"/>
     <sheet name="TFM" sheetId="3" r:id="rId4"/>
     <sheet name="Balance Sheet" sheetId="7" r:id="rId5"/>
@@ -7012,7 +7012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB72281-4E56-4620-8F0B-4493F17EA3D9}">
   <dimension ref="A1:I545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G310" sqref="G310"/>
     </sheetView>
@@ -16481,8 +16481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9C1648-A01D-454E-87E0-5E25CC488966}">
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21096,8 +21096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E905C596-8C7A-44B8-86EC-79AE934C26D0}">
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView topLeftCell="D172" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182:G182"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
